--- a/data/trans_orig/P1425-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1425-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE76486A-3E25-4A15-A8C0-2092B5572691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6790EC7D-BA61-494F-AE7B-2D080FC7F2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2FC5A972-ADBD-405B-B81B-F6FA84C92B00}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E850E745-59AE-42B9-AB10-7C3BB264B1E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="346">
   <si>
     <t>Población con diagnóstico de otros problemas mentales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -98,22 +98,25 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>2,73%</t>
+    <t>3,02%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>3,14%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -122,7 +125,7 @@
     <t>98,99%</t>
   </si>
   <si>
-    <t>97,27%</t>
+    <t>96,98%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -131,19 +134,19 @@
     <t>98,8%</t>
   </si>
   <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>98,9%</t>
   </si>
   <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -155,906 +158,894 @@
     <t>0,41%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
     <t>0,2%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
     <t>0,23%</t>
   </si>
   <si>
@@ -1067,13 +1058,7 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>99,82%</t>
-  </si>
-  <si>
     <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
   </si>
   <si>
     <t>0,11%</t>
@@ -1503,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E790B8-95E9-4323-8A3F-75E1E204E561}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521BCC03-4765-4E80-8ED6-3A9966CD579B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1696,10 +1681,10 @@
         <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -1708,19 +1693,19 @@
         <v>5876</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>268</v>
@@ -1729,13 +1714,13 @@
         <v>270259</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>242</v>
@@ -1744,13 +1729,13 @@
         <v>257713</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>510</v>
@@ -1759,13 +1744,13 @@
         <v>527972</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1780,13 +1765,13 @@
         <v>273010</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>245</v>
@@ -1795,13 +1780,13 @@
         <v>260838</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>516</v>
@@ -1810,18 +1795,18 @@
         <v>533848</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1839,7 +1824,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1854,7 +1839,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1926,7 +1911,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>462</v>
@@ -1986,13 +1971,13 @@
         <v>493075</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>499</v>
@@ -2001,13 +1986,13 @@
         <v>503949</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>964</v>
@@ -2016,13 +2001,13 @@
         <v>997024</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,13 +2111,13 @@
         <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>308</v>
@@ -2141,13 +2126,13 @@
         <v>316708</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>333</v>
@@ -2156,13 +2141,13 @@
         <v>334486</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>641</v>
@@ -2171,13 +2156,13 @@
         <v>651195</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,13 +2177,13 @@
         <v>318846</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>335</v>
@@ -2207,13 +2192,13 @@
         <v>335412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>645</v>
@@ -2222,18 +2207,18 @@
         <v>654258</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2251,7 +2236,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2266,7 +2251,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2281,7 +2266,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,13 +2281,13 @@
         <v>6213</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2311,13 +2296,13 @@
         <v>5602</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -2326,19 +2311,19 @@
         <v>11816</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>356</v>
@@ -2347,13 +2332,13 @@
         <v>352458</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H18" s="7">
         <v>378</v>
@@ -2362,13 +2347,13 @@
         <v>365854</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="M18" s="7">
         <v>734</v>
@@ -2377,13 +2362,13 @@
         <v>718311</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2383,13 @@
         <v>358671</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>384</v>
@@ -2413,13 +2398,13 @@
         <v>371456</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>746</v>
@@ -2428,18 +2413,18 @@
         <v>730127</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2457,7 +2442,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2472,7 +2457,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2502,13 +2487,13 @@
         <v>4541</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2517,13 +2502,13 @@
         <v>3667</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -2532,19 +2517,19 @@
         <v>8208</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>201</v>
@@ -2553,13 +2538,13 @@
         <v>198767</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>195</v>
@@ -2568,13 +2553,13 @@
         <v>204001</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>396</v>
@@ -2583,13 +2568,13 @@
         <v>402768</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,13 +2589,13 @@
         <v>203308</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>198</v>
@@ -2619,13 +2604,13 @@
         <v>207668</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>404</v>
@@ -2634,18 +2619,18 @@
         <v>410976</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2663,7 +2648,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2693,7 +2678,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2693,13 @@
         <v>1029</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2723,13 +2708,13 @@
         <v>1187</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2744,13 +2729,13 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>265</v>
@@ -2759,13 +2744,13 @@
         <v>269782</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>123</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H26" s="7">
         <v>269</v>
@@ -2780,7 +2765,7 @@
         <v>125</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M26" s="7">
         <v>534</v>
@@ -2795,7 +2780,7 @@
         <v>126</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2795,13 @@
         <v>270811</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>270</v>
@@ -2825,13 +2810,13 @@
         <v>278144</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>536</v>
@@ -2840,13 +2825,13 @@
         <v>548955</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,10 +2917,10 @@
         <v>40</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -2947,7 +2932,7 @@
         <v>46</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>136</v>
@@ -2956,7 +2941,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>591</v>
@@ -2986,7 +2971,7 @@
         <v>140</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="M30" s="7">
         <v>1208</v>
@@ -2998,10 +2983,10 @@
         <v>55</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +3001,13 @@
         <v>615027</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31" s="7">
         <v>621</v>
@@ -3031,13 +3016,13 @@
         <v>638219</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M31" s="7">
         <v>1219</v>
@@ -3046,13 +3031,13 @@
         <v>1253246</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,7 +3060,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3090,7 +3075,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3123,10 +3108,10 @@
         <v>145</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H33" s="7">
         <v>12</v>
@@ -3135,13 +3120,13 @@
         <v>13179</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M33" s="7">
         <v>26</v>
@@ -3150,19 +3135,19 @@
         <v>27749</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C34" s="7">
         <v>722</v>
@@ -3171,13 +3156,13 @@
         <v>729226</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="H34" s="7">
         <v>733</v>
@@ -3186,13 +3171,13 @@
         <v>770332</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M34" s="7">
         <v>1455</v>
@@ -3201,13 +3186,13 @@
         <v>1499557</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,13 +3207,13 @@
         <v>743795</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H35" s="7">
         <v>745</v>
@@ -3237,13 +3222,13 @@
         <v>783511</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M35" s="7">
         <v>1481</v>
@@ -3252,13 +3237,13 @@
         <v>1527306</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,7 +3266,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3296,7 +3281,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3311,7 +3296,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3311,13 @@
         <v>40732</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="H37" s="7">
         <v>36</v>
@@ -3341,13 +3326,13 @@
         <v>36848</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="M37" s="7">
         <v>77</v>
@@ -3356,19 +3341,19 @@
         <v>77580</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" s="7">
         <v>3173</v>
@@ -3377,13 +3362,13 @@
         <v>3235812</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H38" s="7">
         <v>3261</v>
@@ -3392,28 +3377,28 @@
         <v>3342350</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>172</v>
+        <v>56</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M38" s="7">
         <v>6434</v>
       </c>
       <c r="N38" s="7">
-        <v>6578160</v>
+        <v>6578161</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3413,13 @@
         <v>3276544</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39" s="7">
         <v>3297</v>
@@ -3443,33 +3428,33 @@
         <v>3379198</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M39" s="7">
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3493,7 +3478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6E808A-319D-4367-8C33-9371FE57F624}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0167D10-A645-495A-8C84-8C27701846A3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3510,7 +3495,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3615,39 +3600,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,84 +3645,84 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,44 +3735,44 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3805,7 +3790,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3850,13 +3835,13 @@
         <v>6323</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -3865,7 +3850,7 @@
         <v>1109</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
@@ -3880,19 +3865,19 @@
         <v>7431</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>468</v>
@@ -3901,10 +3886,10 @@
         <v>499204</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>57</v>
@@ -3916,13 +3901,13 @@
         <v>522656</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>137</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M10" s="7">
         <v>947</v>
@@ -3931,13 +3916,13 @@
         <v>1021861</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +3937,13 @@
         <v>505527</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>480</v>
@@ -3967,13 +3952,13 @@
         <v>523765</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>952</v>
@@ -3982,13 +3967,13 @@
         <v>1029292</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,7 +3996,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4026,7 +4011,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4056,13 +4041,13 @@
         <v>4824</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -4071,13 +4056,13 @@
         <v>4253</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>128</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4086,19 +4071,19 @@
         <v>9077</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>314</v>
@@ -4107,13 +4092,13 @@
         <v>319222</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H14" s="7">
         <v>313</v>
@@ -4122,13 +4107,13 @@
         <v>336767</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>627</v>
@@ -4137,13 +4122,13 @@
         <v>655989</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,13 +4143,13 @@
         <v>324046</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>317</v>
@@ -4173,13 +4158,13 @@
         <v>341020</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>636</v>
@@ -4188,18 +4173,18 @@
         <v>665066</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4247,7 +4232,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,13 +4247,13 @@
         <v>3906</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4283,7 +4268,7 @@
         <v>130</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4292,19 +4277,19 @@
         <v>8733</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>622</v>
@@ -4313,13 +4298,13 @@
         <v>664814</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H18" s="7">
         <v>623</v>
@@ -4328,13 +4313,13 @@
         <v>671368</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="M18" s="7">
         <v>1245</v>
@@ -4343,13 +4328,13 @@
         <v>1336183</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,13 +4349,13 @@
         <v>668720</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>627</v>
@@ -4379,13 +4364,13 @@
         <v>676196</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>1253</v>
@@ -4394,18 +4379,18 @@
         <v>1344916</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4423,7 +4408,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4438,7 +4423,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4468,13 +4453,13 @@
         <v>1134</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4489,7 +4474,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -4498,19 +4483,19 @@
         <v>1134</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>195</v>
@@ -4519,13 +4504,13 @@
         <v>211484</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H22" s="7">
         <v>212</v>
@@ -4534,13 +4519,13 @@
         <v>219591</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
         <v>407</v>
@@ -4549,13 +4534,13 @@
         <v>431075</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,13 +4555,13 @@
         <v>212618</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>212</v>
@@ -4585,13 +4570,13 @@
         <v>219591</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>408</v>
@@ -4600,18 +4585,18 @@
         <v>432209</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4629,7 +4614,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4659,7 +4644,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,13 +4659,13 @@
         <v>3053</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4689,13 +4674,13 @@
         <v>3243</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -4704,19 +4689,19 @@
         <v>6296</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>258</v>
@@ -4725,13 +4710,13 @@
         <v>270928</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>222</v>
+        <v>156</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H26" s="7">
         <v>265</v>
@@ -4740,13 +4725,13 @@
         <v>274853</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="M26" s="7">
         <v>523</v>
@@ -4755,13 +4740,13 @@
         <v>545781</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4761,13 @@
         <v>273981</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>268</v>
@@ -4791,13 +4776,13 @@
         <v>278096</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>529</v>
@@ -4806,13 +4791,13 @@
         <v>552077</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,7 +4850,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4865,13 @@
         <v>5988</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -4898,10 +4883,10 @@
         <v>62</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>67</v>
+        <v>232</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -4913,16 +4898,16 @@
         <v>14</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>612</v>
@@ -4931,13 +4916,13 @@
         <v>656800</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="H30" s="7">
         <v>632</v>
@@ -4946,13 +4931,13 @@
         <v>689193</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="M30" s="7">
         <v>1244</v>
@@ -4961,13 +4946,13 @@
         <v>1345993</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,13 +4967,13 @@
         <v>662788</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31" s="7">
         <v>636</v>
@@ -4997,13 +4982,13 @@
         <v>693853</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M31" s="7">
         <v>1254</v>
@@ -5012,13 +4997,13 @@
         <v>1356641</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,7 +5026,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5056,7 +5041,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5086,13 +5071,13 @@
         <v>7564</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -5101,13 +5086,13 @@
         <v>3362</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>144</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="M33" s="7">
         <v>8</v>
@@ -5116,19 +5101,19 @@
         <v>10925</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C34" s="7">
         <v>712</v>
@@ -5137,13 +5122,13 @@
         <v>771534</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>57</v>
       </c>
       <c r="H34" s="7">
         <v>753</v>
@@ -5152,13 +5137,13 @@
         <v>819216</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M34" s="7">
         <v>1465</v>
@@ -5167,13 +5152,13 @@
         <v>1590751</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5173,13 @@
         <v>779098</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H35" s="7">
         <v>756</v>
@@ -5203,13 +5188,13 @@
         <v>822578</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M35" s="7">
         <v>1473</v>
@@ -5218,13 +5203,13 @@
         <v>1601676</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,7 +5232,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5262,7 +5247,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5277,7 +5262,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5277,13 @@
         <v>32790</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>242</v>
+        <v>65</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -5307,13 +5292,13 @@
         <v>21454</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M37" s="7">
         <v>47</v>
@@ -5325,16 +5310,16 @@
         <v>14</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>243</v>
+        <v>60</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>43</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" s="7">
         <v>3181</v>
@@ -5343,13 +5328,13 @@
         <v>3393989</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>245</v>
+        <v>73</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H38" s="7">
         <v>3277</v>
@@ -5358,28 +5343,28 @@
         <v>3533644</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="M38" s="7">
         <v>6458</v>
       </c>
       <c r="N38" s="7">
-        <v>6927632</v>
+        <v>6927633</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>52</v>
+        <v>251</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5379,13 @@
         <v>3426779</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39" s="7">
         <v>3296</v>
@@ -5409,33 +5394,33 @@
         <v>3555098</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M39" s="7">
         <v>6505</v>
       </c>
       <c r="N39" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -5459,7 +5444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD41E1-2601-480B-AE79-D1CA11FAA930}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC0DB81-9D27-4E87-9718-B2AFD699872E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5476,7 +5461,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5589,7 +5574,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5604,7 +5589,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5619,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5619,13 @@
         <v>4815</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5649,13 +5634,13 @@
         <v>6914</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -5664,19 +5649,19 @@
         <v>11729</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>261</v>
@@ -5685,13 +5670,13 @@
         <v>288946</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>261</v>
+        <v>49</v>
       </c>
       <c r="H6" s="7">
         <v>272</v>
@@ -5700,13 +5685,13 @@
         <v>281789</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="M6" s="7">
         <v>533</v>
@@ -5715,13 +5700,13 @@
         <v>570735</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5721,13 @@
         <v>293761</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>277</v>
@@ -5751,13 +5736,13 @@
         <v>288703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>543</v>
@@ -5766,18 +5751,18 @@
         <v>582464</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5855,13 +5840,13 @@
         <v>2153</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -5870,19 +5855,19 @@
         <v>2153</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>475</v>
@@ -5891,13 +5876,13 @@
         <v>502575</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>482</v>
@@ -5906,13 +5891,13 @@
         <v>520931</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M10" s="7">
         <v>957</v>
@@ -5921,13 +5906,13 @@
         <v>1023506</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5927,13 @@
         <v>502575</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>484</v>
@@ -5957,13 +5942,13 @@
         <v>523084</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>959</v>
@@ -5972,13 +5957,13 @@
         <v>1025659</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,7 +6001,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6031,7 +6016,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>202</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,13 +6046,13 @@
         <v>3197</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -6076,19 +6061,19 @@
         <v>3197</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>335</v>
@@ -6097,13 +6082,13 @@
         <v>318565</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H14" s="7">
         <v>329</v>
@@ -6112,13 +6097,13 @@
         <v>333112</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="M14" s="7">
         <v>664</v>
@@ -6127,13 +6112,13 @@
         <v>651677</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>140</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,13 +6133,13 @@
         <v>318565</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>332</v>
@@ -6163,13 +6148,13 @@
         <v>336309</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>667</v>
@@ -6178,18 +6163,18 @@
         <v>654874</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6207,7 +6192,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6222,7 +6207,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6237,7 +6222,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6255,10 +6240,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6267,13 +6252,13 @@
         <v>1039</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -6282,19 +6267,19 @@
         <v>3928</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>278</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>351</v>
@@ -6303,13 +6288,13 @@
         <v>367075</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H18" s="7">
         <v>357</v>
@@ -6318,13 +6303,13 @@
         <v>386244</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M18" s="7">
         <v>708</v>
@@ -6333,13 +6318,13 @@
         <v>753319</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>284</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>239</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,13 +6339,13 @@
         <v>369964</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>358</v>
@@ -6369,13 +6354,13 @@
         <v>387283</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>712</v>
@@ -6384,18 +6369,18 @@
         <v>757247</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6413,7 +6398,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6428,7 +6413,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6443,7 +6428,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>285</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6461,7 +6446,7 @@
         <v>286</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>287</v>
@@ -6473,10 +6458,10 @@
         <v>2983</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>288</v>
@@ -6488,19 +6473,19 @@
         <v>7999</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>207</v>
@@ -6509,13 +6494,13 @@
         <v>206205</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H22" s="7">
         <v>220</v>
@@ -6524,13 +6509,13 @@
         <v>215604</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>238</v>
+        <v>57</v>
       </c>
       <c r="M22" s="7">
         <v>427</v>
@@ -6539,13 +6524,13 @@
         <v>421809</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6560,13 +6545,13 @@
         <v>211221</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>223</v>
@@ -6575,13 +6560,13 @@
         <v>218587</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>435</v>
@@ -6590,18 +6575,18 @@
         <v>429808</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6619,7 +6604,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>299</v>
+        <v>82</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6634,7 +6619,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6664,13 +6649,13 @@
         <v>3837</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>301</v>
+        <v>183</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -6679,13 +6664,13 @@
         <v>3423</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -6694,19 +6679,19 @@
         <v>7259</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>255</v>
@@ -6715,13 +6700,13 @@
         <v>259286</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>305</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>306</v>
+        <v>32</v>
       </c>
       <c r="H26" s="7">
         <v>260</v>
@@ -6730,13 +6715,13 @@
         <v>269692</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="M26" s="7">
         <v>515</v>
@@ -6745,13 +6730,13 @@
         <v>528979</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>157</v>
+        <v>302</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>112</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6751,13 @@
         <v>263123</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>263</v>
@@ -6781,13 +6766,13 @@
         <v>273115</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>522</v>
@@ -6796,13 +6781,13 @@
         <v>536238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6870,13 +6855,13 @@
         <v>7043</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -6885,13 +6870,13 @@
         <v>7852</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -6900,19 +6885,19 @@
         <v>14894</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>306</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>574</v>
@@ -6921,13 +6906,13 @@
         <v>649515</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>316</v>
+        <v>124</v>
       </c>
       <c r="H30" s="7">
         <v>640</v>
@@ -6936,13 +6921,13 @@
         <v>683442</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="M30" s="7">
         <v>1214</v>
@@ -6951,13 +6936,13 @@
         <v>1332958</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>222</v>
+        <v>156</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>247</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6972,13 +6957,13 @@
         <v>656558</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31" s="7">
         <v>646</v>
@@ -6987,13 +6972,13 @@
         <v>691294</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M31" s="7">
         <v>1226</v>
@@ -7002,13 +6987,13 @@
         <v>1347852</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7031,7 +7016,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7046,7 +7031,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7076,13 +7061,13 @@
         <v>7932</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="H33" s="7">
         <v>6</v>
@@ -7091,13 +7076,13 @@
         <v>6194</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>321</v>
+        <v>168</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M33" s="7">
         <v>14</v>
@@ -7106,19 +7091,19 @@
         <v>14126</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>323</v>
+        <v>108</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>324</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C34" s="7">
         <v>742</v>
@@ -7127,10 +7112,10 @@
         <v>770651</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>54</v>
@@ -7142,13 +7127,13 @@
         <v>819973</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>327</v>
+        <v>175</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="M34" s="7">
         <v>1491</v>
@@ -7157,13 +7142,13 @@
         <v>1590624</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>329</v>
+        <v>116</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>330</v>
+        <v>140</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7178,13 +7163,13 @@
         <v>778583</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H35" s="7">
         <v>755</v>
@@ -7193,13 +7178,13 @@
         <v>826167</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M35" s="7">
         <v>1505</v>
@@ -7208,13 +7193,13 @@
         <v>1604750</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7237,7 +7222,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -7252,7 +7237,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -7267,7 +7252,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7282,13 +7267,13 @@
         <v>31531</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="H37" s="7">
         <v>29</v>
@@ -7297,13 +7282,13 @@
         <v>33756</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>62</v>
+        <v>246</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="M37" s="7">
         <v>60</v>
@@ -7312,19 +7297,19 @@
         <v>65287</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>147</v>
+        <v>320</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>332</v>
+        <v>118</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" s="7">
         <v>3200</v>
@@ -7333,13 +7318,13 @@
         <v>3362819</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="H38" s="7">
         <v>3309</v>
@@ -7348,13 +7333,13 @@
         <v>3510786</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>68</v>
+        <v>249</v>
       </c>
       <c r="M38" s="7">
         <v>6509</v>
@@ -7363,13 +7348,13 @@
         <v>6873605</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>155</v>
+        <v>323</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>333</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7384,13 +7369,13 @@
         <v>3394350</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39" s="7">
         <v>3338</v>
@@ -7399,13 +7384,13 @@
         <v>3544542</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M39" s="7">
         <v>6569</v>
@@ -7414,18 +7399,18 @@
         <v>6938892</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -7449,7 +7434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D70703-B8CD-4D2E-BE83-7428527DA782}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2472EB7E-AC74-4B75-BA87-303F191649A5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7466,7 +7451,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7573,13 +7558,13 @@
         <v>260298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" s="7">
         <v>538</v>
@@ -7588,13 +7573,13 @@
         <v>271403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>306</v>
+        <v>32</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" s="7">
         <v>869</v>
@@ -7603,13 +7588,13 @@
         <v>531700</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>187</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7630,7 +7615,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7645,7 +7630,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7660,13 +7645,13 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>183</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -7681,7 +7666,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7696,7 +7681,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -7711,7 +7696,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>183</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,13 +7711,13 @@
         <v>260298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>538</v>
@@ -7741,13 +7726,13 @@
         <v>271403</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>869</v>
@@ -7756,18 +7741,18 @@
         <v>531700</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -7779,13 +7764,13 @@
         <v>519297</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
         <v>717</v>
@@ -7794,13 +7779,13 @@
         <v>554566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
         <v>1099</v>
@@ -7809,13 +7794,13 @@
         <v>1073864</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>329</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7836,7 +7821,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7851,7 +7836,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -7866,13 +7851,13 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>41</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -7887,7 +7872,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7902,7 +7887,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7917,7 +7902,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7932,13 +7917,13 @@
         <v>519297</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>717</v>
@@ -7947,13 +7932,13 @@
         <v>554566</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>1099</v>
@@ -7962,13 +7947,13 @@
         <v>1073864</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7985,13 +7970,13 @@
         <v>322240</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
@@ -8000,13 +7985,13 @@
         <v>373284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>306</v>
+        <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M12" s="7">
         <v>896</v>
@@ -8015,13 +8000,13 @@
         <v>695524</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8042,7 +8027,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8057,7 +8042,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -8072,13 +8057,13 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -8093,7 +8078,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8108,7 +8093,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8123,7 +8108,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8138,13 +8123,13 @@
         <v>322240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>536</v>
@@ -8153,13 +8138,13 @@
         <v>373284</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>896</v>
@@ -8168,18 +8153,18 @@
         <v>695524</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8191,13 +8176,13 @@
         <v>322240</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16" s="7">
         <v>599</v>
@@ -8206,13 +8191,13 @@
         <v>428556</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M16" s="7">
         <v>891</v>
@@ -8221,13 +8206,13 @@
         <v>750796</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>187</v>
+        <v>326</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8248,7 +8233,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8278,13 +8263,13 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>183</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -8299,7 +8284,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8329,7 +8314,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>183</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8344,13 +8329,13 @@
         <v>322240</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>599</v>
@@ -8359,13 +8344,13 @@
         <v>428556</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>891</v>
@@ -8374,18 +8359,18 @@
         <v>750796</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8397,13 +8382,13 @@
         <v>196748</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7">
         <v>495</v>
@@ -8412,13 +8397,13 @@
         <v>259513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M20" s="7">
         <v>774</v>
@@ -8427,13 +8412,13 @@
         <v>456260</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8454,7 +8439,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -8469,28 +8454,28 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -8505,7 +8490,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8520,22 +8505,22 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8550,13 +8535,13 @@
         <v>196748</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>495</v>
@@ -8565,13 +8550,13 @@
         <v>259513</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>774</v>
@@ -8580,18 +8565,18 @@
         <v>456260</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8603,13 +8588,13 @@
         <v>277223</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H24" s="7">
         <v>460</v>
@@ -8618,13 +8603,13 @@
         <v>275622</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M24" s="7">
         <v>831</v>
@@ -8633,13 +8618,13 @@
         <v>552845</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8660,7 +8645,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8675,7 +8660,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -8690,13 +8675,13 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -8711,7 +8696,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8726,7 +8711,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -8741,7 +8726,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8756,13 +8741,13 @@
         <v>277223</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>460</v>
@@ -8771,13 +8756,13 @@
         <v>275622</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>831</v>
@@ -8786,13 +8771,13 @@
         <v>552845</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8809,13 +8794,13 @@
         <v>627754</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28" s="7">
         <v>960</v>
@@ -8824,13 +8809,13 @@
         <v>804203</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M28" s="7">
         <v>1559</v>
@@ -8839,13 +8824,13 @@
         <v>1431957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8896,13 +8881,13 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -8947,7 +8932,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8962,13 +8947,13 @@
         <v>627754</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31" s="7">
         <v>960</v>
@@ -8977,13 +8962,13 @@
         <v>804203</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M31" s="7">
         <v>1559</v>
@@ -8992,13 +8977,13 @@
         <v>1431957</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9015,13 +9000,13 @@
         <v>859428</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H32" s="7">
         <v>1062</v>
@@ -9030,13 +9015,13 @@
         <v>868434</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>342</v>
+        <v>51</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M32" s="7">
         <v>1824</v>
@@ -9045,13 +9030,13 @@
         <v>1727862</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9072,7 +9057,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9087,7 +9072,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>344</v>
+        <v>41</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -9102,13 +9087,13 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -9123,7 +9108,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -9138,7 +9123,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>344</v>
+        <v>41</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -9153,7 +9138,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9168,13 +9153,13 @@
         <v>859428</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H35" s="7">
         <v>1062</v>
@@ -9183,13 +9168,13 @@
         <v>868434</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M35" s="7">
         <v>1824</v>
@@ -9198,13 +9183,13 @@
         <v>1727862</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9221,13 +9206,13 @@
         <v>3385228</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H36" s="7">
         <v>5367</v>
@@ -9236,28 +9221,28 @@
         <v>3835581</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M36" s="7">
         <v>8743</v>
       </c>
       <c r="N36" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9278,7 +9263,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9293,7 +9278,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -9308,13 +9293,13 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -9329,7 +9314,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -9344,7 +9329,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -9359,7 +9344,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9374,13 +9359,13 @@
         <v>3385228</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39" s="7">
         <v>5367</v>
@@ -9389,33 +9374,33 @@
         <v>3835581</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M39" s="7">
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1425-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1425-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6790EC7D-BA61-494F-AE7B-2D080FC7F2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E32278F3-8CCA-495E-A5A9-5BCA97D74828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E850E745-59AE-42B9-AB10-7C3BB264B1E1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0FA33CF1-96B0-4337-B74F-9A0A6CC1790F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="345">
   <si>
     <t>Población con diagnóstico de otros problemas mentales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -98,967 +98,964 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>3,02%</t>
+    <t>2,71%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
   </si>
   <si>
     <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
   </si>
   <si>
     <t>0,11%</t>
@@ -1488,7 +1485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521BCC03-4765-4E80-8ED6-3A9966CD579B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C49478-538D-4151-80FC-DC3D4A0682CE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1681,10 +1678,10 @@
         <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -1693,19 +1690,19 @@
         <v>5876</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>268</v>
@@ -1714,13 +1711,13 @@
         <v>270259</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>242</v>
@@ -1729,13 +1726,13 @@
         <v>257713</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>510</v>
@@ -1744,13 +1741,13 @@
         <v>527972</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1765,13 +1762,13 @@
         <v>273010</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>245</v>
@@ -1780,13 +1777,13 @@
         <v>260838</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>516</v>
@@ -1795,18 +1792,18 @@
         <v>533848</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1824,22 +1821,22 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1887,10 +1884,10 @@
         <v>43</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -1899,19 +1896,19 @@
         <v>8272</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>462</v>
@@ -1920,13 +1917,13 @@
         <v>490091</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>494</v>
@@ -1935,13 +1932,13 @@
         <v>498661</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>956</v>
@@ -1950,13 +1947,13 @@
         <v>988752</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,13 +1968,13 @@
         <v>493075</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>499</v>
@@ -1986,13 +1983,13 @@
         <v>503949</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>964</v>
@@ -2001,18 +1998,18 @@
         <v>997024</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2030,37 +2027,37 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,13 +2072,13 @@
         <v>2138</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2090,13 +2087,13 @@
         <v>926</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2105,19 +2102,19 @@
         <v>3063</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>308</v>
@@ -2126,13 +2123,13 @@
         <v>316708</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>333</v>
@@ -2141,13 +2138,13 @@
         <v>334486</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>641</v>
@@ -2156,13 +2153,13 @@
         <v>651195</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,13 +2174,13 @@
         <v>318846</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>335</v>
@@ -2192,13 +2189,13 @@
         <v>335412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>645</v>
@@ -2207,18 +2204,18 @@
         <v>654258</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2236,37 +2233,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,13 +2278,13 @@
         <v>6213</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2296,13 +2293,13 @@
         <v>5602</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -2311,19 +2308,19 @@
         <v>11816</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>356</v>
@@ -2332,13 +2329,13 @@
         <v>352458</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H18" s="7">
         <v>378</v>
@@ -2347,13 +2344,13 @@
         <v>365854</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M18" s="7">
         <v>734</v>
@@ -2362,13 +2359,13 @@
         <v>718311</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2380,13 @@
         <v>358671</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>384</v>
@@ -2398,13 +2395,13 @@
         <v>371456</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>746</v>
@@ -2413,18 +2410,18 @@
         <v>730127</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2442,7 +2439,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2457,7 +2454,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2472,7 +2469,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,13 +2484,13 @@
         <v>4541</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2502,13 +2499,13 @@
         <v>3667</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -2517,19 +2514,19 @@
         <v>8208</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>201</v>
@@ -2538,13 +2535,13 @@
         <v>198767</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>195</v>
@@ -2553,13 +2550,13 @@
         <v>204001</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>396</v>
@@ -2568,10 +2565,10 @@
         <v>402768</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>116</v>
@@ -2589,13 +2586,13 @@
         <v>203308</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>198</v>
@@ -2604,13 +2601,13 @@
         <v>207668</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>404</v>
@@ -2619,13 +2616,13 @@
         <v>410976</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,7 +2675,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2690,13 @@
         <v>1029</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2708,13 +2705,13 @@
         <v>1187</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2723,19 +2720,19 @@
         <v>2216</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>265</v>
@@ -2744,13 +2741,13 @@
         <v>269782</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H26" s="7">
         <v>269</v>
@@ -2759,13 +2756,13 @@
         <v>276957</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M26" s="7">
         <v>534</v>
@@ -2774,13 +2771,13 @@
         <v>546739</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,13 +2792,13 @@
         <v>270811</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>270</v>
@@ -2810,13 +2807,13 @@
         <v>278144</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>536</v>
@@ -2825,18 +2822,18 @@
         <v>548955</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2854,7 +2851,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2869,7 +2866,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2884,7 +2881,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,13 +2896,13 @@
         <v>6508</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2917,10 +2914,10 @@
         <v>40</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -2929,19 +2926,19 @@
         <v>10380</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>591</v>
@@ -2965,13 +2962,13 @@
         <v>634346</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>140</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="M30" s="7">
         <v>1208</v>
@@ -2980,13 +2977,13 @@
         <v>1242866</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,13 +2998,13 @@
         <v>615027</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>621</v>
@@ -3016,13 +3013,13 @@
         <v>638219</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>1219</v>
@@ -3031,18 +3028,18 @@
         <v>1253246</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3060,7 +3057,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3075,7 +3072,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3090,7 +3087,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,13 +3102,13 @@
         <v>14569</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="G33" s="7" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="H33" s="7">
         <v>12</v>
@@ -3120,13 +3117,13 @@
         <v>13179</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M33" s="7">
         <v>26</v>
@@ -3135,19 +3132,19 @@
         <v>27749</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="7">
         <v>722</v>
@@ -3156,13 +3153,13 @@
         <v>729226</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H34" s="7">
         <v>733</v>
@@ -3171,13 +3168,13 @@
         <v>770332</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="M34" s="7">
         <v>1455</v>
@@ -3186,13 +3183,13 @@
         <v>1499557</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,13 +3204,13 @@
         <v>743795</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H35" s="7">
         <v>745</v>
@@ -3222,13 +3219,13 @@
         <v>783511</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M35" s="7">
         <v>1481</v>
@@ -3237,13 +3234,13 @@
         <v>1527306</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,7 +3263,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3281,7 +3278,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3296,7 +3293,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,13 +3308,13 @@
         <v>40732</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="H37" s="7">
         <v>36</v>
@@ -3326,13 +3323,13 @@
         <v>36848</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="M37" s="7">
         <v>77</v>
@@ -3341,34 +3338,34 @@
         <v>77580</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" s="7">
         <v>3173</v>
       </c>
       <c r="D38" s="7">
-        <v>3235812</v>
+        <v>3235811</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H38" s="7">
         <v>3261</v>
@@ -3377,13 +3374,13 @@
         <v>3342350</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M38" s="7">
         <v>6434</v>
@@ -3392,13 +3389,13 @@
         <v>6578161</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,16 +3407,16 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
         <v>3297</v>
@@ -3428,13 +3425,13 @@
         <v>3379198</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
         <v>6511</v>
@@ -3443,18 +3440,18 @@
         <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3478,7 +3475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0167D10-A645-495A-8C84-8C27701846A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2D582A-2FFC-4048-B438-455145C849A5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3495,7 +3492,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3600,39 +3597,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,84 +3642,84 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,44 +3732,44 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3790,7 +3787,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3805,7 +3802,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3835,13 +3832,13 @@
         <v>6323</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -3850,13 +3847,13 @@
         <v>1109</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -3868,16 +3865,16 @@
         <v>118</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>468</v>
@@ -3886,13 +3883,13 @@
         <v>499204</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>479</v>
@@ -3901,13 +3898,13 @@
         <v>522656</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>947</v>
@@ -3916,13 +3913,13 @@
         <v>1021861</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3934,13 @@
         <v>505527</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>480</v>
@@ -3952,13 +3949,13 @@
         <v>523765</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>952</v>
@@ -3967,18 +3964,18 @@
         <v>1029292</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3996,7 +3993,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4011,7 +4008,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4026,7 +4023,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4038,13 @@
         <v>4824</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -4056,13 +4053,13 @@
         <v>4253</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4071,19 +4068,19 @@
         <v>9077</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>314</v>
@@ -4092,13 +4089,13 @@
         <v>319222</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H14" s="7">
         <v>313</v>
@@ -4107,13 +4104,13 @@
         <v>336767</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M14" s="7">
         <v>627</v>
@@ -4122,13 +4119,13 @@
         <v>655989</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4140,13 @@
         <v>324046</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>317</v>
@@ -4158,13 +4155,13 @@
         <v>341020</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>636</v>
@@ -4173,18 +4170,18 @@
         <v>665066</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4202,7 +4199,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4217,7 +4214,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4232,7 +4229,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4244,13 @@
         <v>3906</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4265,10 +4262,10 @@
         <v>13</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4277,19 +4274,19 @@
         <v>8733</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>622</v>
@@ -4298,13 +4295,13 @@
         <v>664814</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H18" s="7">
         <v>623</v>
@@ -4313,13 +4310,13 @@
         <v>671368</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="M18" s="7">
         <v>1245</v>
@@ -4328,13 +4325,13 @@
         <v>1336183</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4346,13 @@
         <v>668720</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>627</v>
@@ -4364,13 +4361,13 @@
         <v>676196</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>1253</v>
@@ -4379,18 +4376,18 @@
         <v>1344916</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4408,7 +4405,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4423,7 +4420,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4438,7 +4435,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4450,13 @@
         <v>1134</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4474,7 +4471,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -4483,19 +4480,19 @@
         <v>1134</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>195</v>
@@ -4504,13 +4501,13 @@
         <v>211484</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H22" s="7">
         <v>212</v>
@@ -4519,13 +4516,13 @@
         <v>219591</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M22" s="7">
         <v>407</v>
@@ -4534,13 +4531,13 @@
         <v>431075</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4552,13 @@
         <v>212618</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>212</v>
@@ -4570,13 +4567,13 @@
         <v>219591</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>408</v>
@@ -4585,13 +4582,13 @@
         <v>432209</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,7 +4611,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4644,7 +4641,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4656,13 @@
         <v>3053</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4674,13 +4671,13 @@
         <v>3243</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -4689,19 +4686,19 @@
         <v>6296</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>258</v>
@@ -4710,13 +4707,13 @@
         <v>270928</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H26" s="7">
         <v>265</v>
@@ -4725,13 +4722,13 @@
         <v>274853</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M26" s="7">
         <v>523</v>
@@ -4740,13 +4737,13 @@
         <v>545781</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +4758,13 @@
         <v>273981</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>268</v>
@@ -4776,13 +4773,13 @@
         <v>278096</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>529</v>
@@ -4791,18 +4788,18 @@
         <v>552077</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4820,7 +4817,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4835,7 +4832,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4850,7 +4847,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>204</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4862,13 @@
         <v>5988</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>129</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -4880,13 +4877,13 @@
         <v>4660</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -4898,16 +4895,16 @@
         <v>14</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>233</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>612</v>
@@ -4916,13 +4913,13 @@
         <v>656800</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>632</v>
@@ -4931,13 +4928,13 @@
         <v>689193</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>1244</v>
@@ -4946,13 +4943,13 @@
         <v>1345993</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>237</v>
+        <v>72</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4964,13 @@
         <v>662788</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>636</v>
@@ -4982,13 +4979,13 @@
         <v>693853</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>1254</v>
@@ -4997,18 +4994,18 @@
         <v>1356641</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5026,7 +5023,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5041,7 +5038,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5056,7 +5053,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5068,13 @@
         <v>7564</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -5086,13 +5083,13 @@
         <v>3362</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="M33" s="7">
         <v>8</v>
@@ -5101,19 +5098,19 @@
         <v>10925</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="7">
         <v>712</v>
@@ -5122,13 +5119,13 @@
         <v>771534</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>753</v>
@@ -5137,13 +5134,13 @@
         <v>819216</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>1465</v>
@@ -5152,13 +5149,13 @@
         <v>1590751</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,13 +5170,13 @@
         <v>779098</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H35" s="7">
         <v>756</v>
@@ -5188,13 +5185,13 @@
         <v>822578</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M35" s="7">
         <v>1473</v>
@@ -5203,13 +5200,13 @@
         <v>1601676</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,7 +5229,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5247,7 +5244,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5262,7 +5259,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5274,13 @@
         <v>32790</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>65</v>
+        <v>242</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -5292,13 +5289,13 @@
         <v>21454</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="M37" s="7">
         <v>47</v>
@@ -5310,16 +5307,16 @@
         <v>14</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" s="7">
         <v>3181</v>
@@ -5328,13 +5325,13 @@
         <v>3393989</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H38" s="7">
         <v>3277</v>
@@ -5343,28 +5340,28 @@
         <v>3533644</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M38" s="7">
         <v>6458</v>
       </c>
       <c r="N38" s="7">
-        <v>6927633</v>
+        <v>6927632</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,13 +5376,13 @@
         <v>3426779</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
         <v>3296</v>
@@ -5394,33 +5391,33 @@
         <v>3555098</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
         <v>6505</v>
       </c>
       <c r="N39" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5444,7 +5441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC0DB81-9D27-4E87-9718-B2AFD699872E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB338940-D67D-4332-8522-09E02D31026F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5461,7 +5458,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5589,7 +5586,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5604,7 +5601,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,13 +5616,13 @@
         <v>4815</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5634,13 +5631,13 @@
         <v>6914</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -5649,19 +5646,19 @@
         <v>11729</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>261</v>
@@ -5670,13 +5667,13 @@
         <v>288946</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="H6" s="7">
         <v>272</v>
@@ -5685,13 +5682,13 @@
         <v>281789</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M6" s="7">
         <v>533</v>
@@ -5700,13 +5697,13 @@
         <v>570735</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>266</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5718,13 @@
         <v>293761</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>277</v>
@@ -5736,13 +5733,13 @@
         <v>288703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>543</v>
@@ -5751,18 +5748,18 @@
         <v>582464</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5780,7 +5777,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5795,7 +5792,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5831,7 +5828,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5840,13 +5837,13 @@
         <v>2153</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -5855,19 +5852,19 @@
         <v>2153</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>118</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>475</v>
@@ -5876,13 +5873,13 @@
         <v>502575</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" s="7">
         <v>482</v>
@@ -5891,13 +5888,13 @@
         <v>520931</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>957</v>
@@ -5906,13 +5903,13 @@
         <v>1023506</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,13 +5924,13 @@
         <v>502575</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>484</v>
@@ -5942,13 +5939,13 @@
         <v>523084</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>959</v>
@@ -5957,18 +5954,18 @@
         <v>1025659</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5986,7 +5983,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6001,7 +5998,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6016,7 +6013,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,7 +6034,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -6046,13 +6043,13 @@
         <v>3197</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -6061,19 +6058,19 @@
         <v>3197</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>335</v>
@@ -6082,13 +6079,13 @@
         <v>318565</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="7">
         <v>329</v>
@@ -6097,13 +6094,13 @@
         <v>333112</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="M14" s="7">
         <v>664</v>
@@ -6112,13 +6109,13 @@
         <v>651677</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,13 +6130,13 @@
         <v>318565</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>332</v>
@@ -6148,13 +6145,13 @@
         <v>336309</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>667</v>
@@ -6163,18 +6160,18 @@
         <v>654874</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6192,7 +6189,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6207,7 +6204,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6222,7 +6219,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,10 +6237,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6252,13 +6249,13 @@
         <v>1039</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -6267,19 +6264,19 @@
         <v>3928</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>351</v>
@@ -6288,13 +6285,13 @@
         <v>367075</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H18" s="7">
         <v>357</v>
@@ -6303,13 +6300,13 @@
         <v>386244</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>284</v>
+        <v>200</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M18" s="7">
         <v>708</v>
@@ -6318,13 +6315,13 @@
         <v>753319</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>76</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,13 +6336,13 @@
         <v>369964</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>358</v>
@@ -6354,13 +6351,13 @@
         <v>387283</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>712</v>
@@ -6369,18 +6366,18 @@
         <v>757247</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6398,7 +6395,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6413,7 +6410,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>87</v>
+        <v>278</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6428,7 +6425,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,13 +6440,13 @@
         <v>5016</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -6458,13 +6455,13 @@
         <v>2983</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -6473,19 +6470,19 @@
         <v>7999</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>207</v>
@@ -6494,13 +6491,13 @@
         <v>206205</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H22" s="7">
         <v>220</v>
@@ -6509,13 +6506,13 @@
         <v>215604</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="M22" s="7">
         <v>427</v>
@@ -6524,13 +6521,13 @@
         <v>421809</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,13 +6542,13 @@
         <v>211221</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>223</v>
@@ -6560,13 +6557,13 @@
         <v>218587</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>435</v>
@@ -6575,13 +6572,13 @@
         <v>429808</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6604,7 +6601,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6619,7 +6616,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6649,13 +6646,13 @@
         <v>3837</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>183</v>
+        <v>296</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -6664,13 +6661,13 @@
         <v>3423</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -6679,19 +6676,19 @@
         <v>7259</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>255</v>
@@ -6700,13 +6697,13 @@
         <v>259286</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H26" s="7">
         <v>260</v>
@@ -6715,13 +6712,13 @@
         <v>269692</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>301</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="M26" s="7">
         <v>515</v>
@@ -6730,13 +6727,13 @@
         <v>528979</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>302</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,13 +6748,13 @@
         <v>263123</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>263</v>
@@ -6766,13 +6763,13 @@
         <v>273115</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>522</v>
@@ -6781,18 +6778,18 @@
         <v>536238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6825,7 +6822,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6840,7 +6837,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6858,7 +6855,7 @@
         <v>303</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>304</v>
@@ -6870,10 +6867,10 @@
         <v>7852</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>305</v>
@@ -6885,19 +6882,19 @@
         <v>14894</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>574</v>
@@ -6906,13 +6903,13 @@
         <v>649515</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>309</v>
-      </c>
       <c r="G30" s="7" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>640</v>
@@ -6921,13 +6918,13 @@
         <v>683442</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="M30" s="7">
         <v>1214</v>
@@ -6936,13 +6933,13 @@
         <v>1332958</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>312</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,13 +6954,13 @@
         <v>656558</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>646</v>
@@ -6972,13 +6969,13 @@
         <v>691294</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>1226</v>
@@ -6987,18 +6984,18 @@
         <v>1347852</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7016,7 +7013,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7031,7 +7028,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7046,7 +7043,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7061,13 +7058,13 @@
         <v>7932</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H33" s="7">
         <v>6</v>
@@ -7076,13 +7073,13 @@
         <v>6194</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>168</v>
+        <v>314</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M33" s="7">
         <v>14</v>
@@ -7091,19 +7088,19 @@
         <v>14126</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>134</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="7">
         <v>742</v>
@@ -7115,10 +7112,10 @@
         <v>316</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>54</v>
+        <v>318</v>
       </c>
       <c r="H34" s="7">
         <v>749</v>
@@ -7127,13 +7124,13 @@
         <v>819973</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>32</v>
+        <v>321</v>
       </c>
       <c r="M34" s="7">
         <v>1491</v>
@@ -7142,13 +7139,13 @@
         <v>1590624</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>140</v>
+        <v>299</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7163,13 +7160,13 @@
         <v>778583</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H35" s="7">
         <v>755</v>
@@ -7178,13 +7175,13 @@
         <v>826167</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M35" s="7">
         <v>1505</v>
@@ -7193,13 +7190,13 @@
         <v>1604750</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7222,7 +7219,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -7237,7 +7234,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -7252,7 +7249,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7267,13 +7264,13 @@
         <v>31531</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="H37" s="7">
         <v>29</v>
@@ -7282,13 +7279,13 @@
         <v>33756</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>246</v>
+        <v>58</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="M37" s="7">
         <v>60</v>
@@ -7297,19 +7294,19 @@
         <v>65287</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>118</v>
+        <v>294</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" s="7">
         <v>3200</v>
@@ -7318,13 +7315,13 @@
         <v>3362819</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>322</v>
+        <v>214</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="H38" s="7">
         <v>3309</v>
@@ -7333,13 +7330,13 @@
         <v>3510786</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>249</v>
+        <v>92</v>
       </c>
       <c r="M38" s="7">
         <v>6509</v>
@@ -7348,13 +7345,13 @@
         <v>6873605</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>189</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7369,13 +7366,13 @@
         <v>3394350</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
         <v>3338</v>
@@ -7384,13 +7381,13 @@
         <v>3544542</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
         <v>6569</v>
@@ -7399,18 +7396,18 @@
         <v>6938892</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -7434,7 +7431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2472EB7E-AC74-4B75-BA87-303F191649A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D2C10C-FD8B-4C30-A684-E1E69D346280}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7451,7 +7448,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7558,13 +7555,13 @@
         <v>260298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="7">
         <v>538</v>
@@ -7573,13 +7570,13 @@
         <v>271403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>32</v>
+        <v>329</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M4" s="7">
         <v>869</v>
@@ -7588,13 +7585,13 @@
         <v>531700</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7615,7 +7612,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7630,7 +7627,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7645,13 +7642,13 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>327</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -7666,7 +7663,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7681,7 +7678,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -7696,7 +7693,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>327</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7711,13 +7708,13 @@
         <v>260298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>538</v>
@@ -7726,13 +7723,13 @@
         <v>271403</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>869</v>
@@ -7741,18 +7738,18 @@
         <v>531700</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -7764,13 +7761,13 @@
         <v>519297</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
         <v>717</v>
@@ -7779,13 +7776,13 @@
         <v>554566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
         <v>1099</v>
@@ -7794,13 +7791,13 @@
         <v>1073864</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>329</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7821,7 +7818,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7836,7 +7833,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -7851,13 +7848,13 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>330</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -7872,7 +7869,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7887,7 +7884,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7902,7 +7899,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>330</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7917,13 +7914,13 @@
         <v>519297</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>717</v>
@@ -7932,13 +7929,13 @@
         <v>554566</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>1099</v>
@@ -7947,18 +7944,18 @@
         <v>1073864</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7970,13 +7967,13 @@
         <v>322240</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
@@ -7985,13 +7982,13 @@
         <v>373284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>329</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M12" s="7">
         <v>896</v>
@@ -8000,13 +7997,13 @@
         <v>695524</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8027,7 +8024,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8042,7 +8039,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -8057,13 +8054,13 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -8078,7 +8075,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8093,7 +8090,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8108,7 +8105,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8123,13 +8120,13 @@
         <v>322240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>536</v>
@@ -8138,13 +8135,13 @@
         <v>373284</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>896</v>
@@ -8153,18 +8150,18 @@
         <v>695524</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8176,13 +8173,13 @@
         <v>322240</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" s="7">
         <v>599</v>
@@ -8191,13 +8188,13 @@
         <v>428556</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M16" s="7">
         <v>891</v>
@@ -8206,13 +8203,13 @@
         <v>750796</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8233,7 +8230,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8248,7 +8245,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -8263,13 +8260,13 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>327</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -8284,7 +8281,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8299,7 +8296,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8314,7 +8311,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>327</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8329,13 +8326,13 @@
         <v>322240</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>599</v>
@@ -8344,13 +8341,13 @@
         <v>428556</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>891</v>
@@ -8359,18 +8356,18 @@
         <v>750796</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8382,13 +8379,13 @@
         <v>196748</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="7">
         <v>495</v>
@@ -8397,13 +8394,13 @@
         <v>259513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M20" s="7">
         <v>774</v>
@@ -8412,13 +8409,13 @@
         <v>456260</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8439,7 +8436,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -8454,7 +8451,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -8469,13 +8466,13 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -8490,7 +8487,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8505,7 +8502,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -8520,7 +8517,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8535,13 +8532,13 @@
         <v>196748</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>495</v>
@@ -8550,13 +8547,13 @@
         <v>259513</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>774</v>
@@ -8565,13 +8562,13 @@
         <v>456260</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8588,13 +8585,13 @@
         <v>277223</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H24" s="7">
         <v>460</v>
@@ -8603,13 +8600,13 @@
         <v>275622</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>332</v>
+        <v>229</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M24" s="7">
         <v>831</v>
@@ -8618,13 +8615,13 @@
         <v>552845</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8645,7 +8642,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8660,7 +8657,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>334</v>
+        <v>227</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -8675,13 +8672,13 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -8696,7 +8693,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8711,7 +8708,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>334</v>
+        <v>227</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -8726,7 +8723,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8741,13 +8738,13 @@
         <v>277223</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>460</v>
@@ -8756,13 +8753,13 @@
         <v>275622</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>831</v>
@@ -8771,18 +8768,18 @@
         <v>552845</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8794,13 +8791,13 @@
         <v>627754</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28" s="7">
         <v>960</v>
@@ -8809,13 +8806,13 @@
         <v>804203</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M28" s="7">
         <v>1559</v>
@@ -8824,13 +8821,13 @@
         <v>1431957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8851,7 +8848,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8881,13 +8878,13 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -8902,7 +8899,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8932,7 +8929,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8947,13 +8944,13 @@
         <v>627754</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>960</v>
@@ -8962,13 +8959,13 @@
         <v>804203</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>1559</v>
@@ -8977,18 +8974,18 @@
         <v>1431957</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9000,13 +8997,13 @@
         <v>859428</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32" s="7">
         <v>1062</v>
@@ -9015,13 +9012,13 @@
         <v>868434</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>51</v>
+        <v>336</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M32" s="7">
         <v>1824</v>
@@ -9030,13 +9027,13 @@
         <v>1727862</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9057,7 +9054,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9072,7 +9069,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>41</v>
+        <v>338</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -9087,13 +9084,13 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -9108,7 +9105,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -9123,7 +9120,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>41</v>
+        <v>338</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -9138,7 +9135,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9153,13 +9150,13 @@
         <v>859428</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H35" s="7">
         <v>1062</v>
@@ -9168,13 +9165,13 @@
         <v>868434</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M35" s="7">
         <v>1824</v>
@@ -9183,13 +9180,13 @@
         <v>1727862</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9206,13 +9203,13 @@
         <v>3385228</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H36" s="7">
         <v>5367</v>
@@ -9221,13 +9218,13 @@
         <v>3835581</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M36" s="7">
         <v>8743</v>
@@ -9236,13 +9233,13 @@
         <v>7220808</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9263,7 +9260,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9278,28 +9275,28 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -9314,7 +9311,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -9329,22 +9326,22 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9359,13 +9356,13 @@
         <v>3385228</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
         <v>5367</v>
@@ -9374,13 +9371,13 @@
         <v>3835581</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
         <v>8743</v>
@@ -9389,18 +9386,18 @@
         <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1425-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1425-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEF4E00A-83E4-4303-A2C4-8C759073C43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{201D0153-1430-4C5A-B23A-3825BF344CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3AEE7DF6-A6BE-40DE-B832-47199D520F78}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{83C2FBBD-4947-422C-8798-D448996CA73F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="330">
   <si>
     <t>Población con diagnóstico de otros problemas mentales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -514,7 +514,40 @@
     <t>Población con diagnóstico de otros problemas mentales en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>1,25%</t>
@@ -547,9 +580,6 @@
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
     <t>3,16%</t>
   </si>
   <si>
@@ -571,9 +601,6 @@
     <t>96,84%</t>
   </si>
   <si>
-    <t>99,68%</t>
-  </si>
-  <si>
     <t>98,64%</t>
   </si>
   <si>
@@ -583,240 +610,246 @@
     <t>99,35%</t>
   </si>
   <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>0,16%</t>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
     <t>99,51%</t>
   </si>
   <si>
@@ -940,9 +973,6 @@
     <t>2,4%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
     <t>1,93%</t>
   </si>
   <si>
@@ -955,9 +985,6 @@
     <t>99,66%</t>
   </si>
   <si>
-    <t>97,76%</t>
-  </si>
-  <si>
     <t>98,07%</t>
   </si>
   <si>
@@ -976,9 +1003,6 @@
     <t>0,88%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
     <t>1,41%</t>
   </si>
   <si>
@@ -998,9 +1022,6 @@
   </si>
   <si>
     <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
   </si>
   <si>
     <t>0,7%</t>
@@ -1418,7 +1439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF02F632-2CE3-47D7-8F0B-D31D6F6C0A0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F1C620-3972-43E4-B46B-9399F4956A58}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2830,7 +2851,7 @@
         <v>3173</v>
       </c>
       <c r="D29" s="7">
-        <v>3235812</v>
+        <v>3235811</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>139</v>
@@ -2845,7 +2866,7 @@
         <v>3261</v>
       </c>
       <c r="I29" s="7">
-        <v>3342350</v>
+        <v>3342349</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>150</v>
@@ -2860,7 +2881,7 @@
         <v>6434</v>
       </c>
       <c r="N29" s="7">
-        <v>6578160</v>
+        <v>6578161</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>153</v>
@@ -2881,7 +2902,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2896,7 +2917,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2911,7 +2932,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2949,7 +2970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05271802-6B12-4D36-B9CA-DE89C919BB55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66823B0-F201-42E9-906A-6C0B776E5A40}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3067,43 +3088,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2761</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>158</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2133</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4894</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,43 +3139,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>279</v>
+      </c>
+      <c r="D5" s="7">
+        <v>291977</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>254</v>
+      </c>
+      <c r="I5" s="7">
+        <v>285112</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>533</v>
+      </c>
+      <c r="N5" s="7">
+        <v>577089</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,43 +3190,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3249,13 @@
         <v>6323</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3225,7 +3264,7 @@
         <v>1109</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>52</v>
@@ -3243,7 +3282,7 @@
         <v>67</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>40</v>
@@ -3261,10 +3300,10 @@
         <v>499204</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>49</v>
@@ -3276,7 +3315,7 @@
         <v>522656</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>119</v>
@@ -3297,7 +3336,7 @@
         <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,10 +3404,10 @@
         <v>4824</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>127</v>
@@ -3380,13 +3419,13 @@
         <v>4253</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3395,13 +3434,13 @@
         <v>9077</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3455,13 @@
         <v>319222</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H11" s="7">
         <v>313</v>
@@ -3431,13 +3470,13 @@
         <v>336767</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>627</v>
@@ -3446,13 +3485,13 @@
         <v>655989</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,49 +3553,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>3906</v>
+        <v>1145</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2695</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="7">
+        <v>3</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3839</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4828</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M13" s="7">
-        <v>8</v>
-      </c>
-      <c r="N13" s="7">
-        <v>8733</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,49 +3604,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>622</v>
+        <v>343</v>
       </c>
       <c r="D14" s="7">
-        <v>664814</v>
+        <v>372837</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="7">
+        <v>369</v>
+      </c>
+      <c r="I14" s="7">
+        <v>386256</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="7">
+        <v>712</v>
+      </c>
+      <c r="N14" s="7">
+        <v>759094</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="H14" s="7">
-        <v>623</v>
-      </c>
-      <c r="I14" s="7">
-        <v>671368</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1245</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1336183</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,10 +3655,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3631,10 +3670,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3646,10 +3685,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3675,13 +3714,13 @@
         <v>1134</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3693,7 +3732,7 @@
         <v>52</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>140</v>
@@ -3705,13 +3744,13 @@
         <v>1134</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,10 +3765,10 @@
         <v>211484</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>60</v>
@@ -3756,10 +3795,10 @@
         <v>431075</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>60</v>
@@ -3830,13 +3869,13 @@
         <v>3053</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -3851,7 +3890,7 @@
         <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -3860,13 +3899,13 @@
         <v>6296</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3920,13 @@
         <v>270928</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="H20" s="7">
         <v>265</v>
@@ -3899,7 +3938,7 @@
         <v>153</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>107</v>
@@ -3911,10 +3950,10 @@
         <v>545781</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>107</v>
@@ -3988,7 +4027,7 @@
         <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>130</v>
@@ -4015,7 +4054,7 @@
         <v>10648</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>36</v>
@@ -4042,7 +4081,7 @@
         <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="H23" s="7">
         <v>632</v>
@@ -4066,7 +4105,7 @@
         <v>1345993</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>124</v>
@@ -4140,13 +4179,13 @@
         <v>7564</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4155,10 +4194,10 @@
         <v>3362</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>142</v>
@@ -4170,13 +4209,13 @@
         <v>10925</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4230,13 @@
         <v>771534</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="H26" s="7">
         <v>753</v>
@@ -4206,13 +4245,13 @@
         <v>819216</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>150</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="M26" s="7">
         <v>1465</v>
@@ -4221,10 +4260,10 @@
         <v>1590751</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>23</v>
@@ -4295,13 +4334,13 @@
         <v>32790</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -4310,7 +4349,7 @@
         <v>21454</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>102</v>
@@ -4325,10 +4364,10 @@
         <v>54245</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>35</v>
@@ -4346,13 +4385,13 @@
         <v>3393989</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="H29" s="7">
         <v>3277</v>
@@ -4361,7 +4400,7 @@
         <v>3533644</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>155</v>
@@ -4376,13 +4415,13 @@
         <v>6927632</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,7 +4501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A6188B-7828-433D-A47B-664CA699EFA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3082E9A-CF52-4472-91E5-0B1DFD95D241}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4479,7 +4518,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4586,13 +4625,13 @@
         <v>4815</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4601,13 +4640,13 @@
         <v>6914</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>67</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -4616,13 +4655,13 @@
         <v>11729</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4676,13 @@
         <v>288946</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="H5" s="7">
         <v>272</v>
@@ -4652,10 +4691,10 @@
         <v>281789</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>76</v>
@@ -4667,13 +4706,13 @@
         <v>570735</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,7 +4783,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>39</v>
@@ -4756,13 +4795,13 @@
         <v>2153</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4771,13 +4810,13 @@
         <v>2153</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,10 +4846,10 @@
         <v>520931</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>60</v>
@@ -4822,10 +4861,10 @@
         <v>1023506</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>60</v>
@@ -4899,10 +4938,10 @@
         <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4914,10 +4953,10 @@
         <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4926,13 +4965,13 @@
         <v>3197</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>116</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,7 +4989,7 @@
         <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -4965,10 +5004,10 @@
         <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="M11" s="7">
         <v>664</v>
@@ -4977,10 +5016,10 @@
         <v>651677</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>123</v>
@@ -5051,13 +5090,13 @@
         <v>2889</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -5066,13 +5105,13 @@
         <v>1039</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -5081,13 +5120,13 @@
         <v>3928</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5141,13 @@
         <v>367075</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="H14" s="7">
         <v>357</v>
@@ -5117,10 +5156,10 @@
         <v>386244</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>60</v>
@@ -5132,13 +5171,13 @@
         <v>753319</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5245,13 @@
         <v>5016</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5221,13 +5260,13 @@
         <v>2983</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5236,13 +5275,13 @@
         <v>7999</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5296,13 @@
         <v>206205</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="H17" s="7">
         <v>220</v>
@@ -5272,13 +5311,13 @@
         <v>215604</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>427</v>
@@ -5287,13 +5326,13 @@
         <v>421809</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5400,13 @@
         <v>3837</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -5376,13 +5415,13 @@
         <v>3423</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5391,7 +5430,7 @@
         <v>7259</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>87</v>
@@ -5412,13 +5451,13 @@
         <v>259286</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="H20" s="7">
         <v>260</v>
@@ -5427,10 +5466,10 @@
         <v>269692</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>107</v>
@@ -5442,7 +5481,7 @@
         <v>528979</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>138</v>
@@ -5516,13 +5555,13 @@
         <v>7043</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -5531,13 +5570,13 @@
         <v>7852</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>300</v>
+        <v>159</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -5546,13 +5585,13 @@
         <v>14894</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5606,13 @@
         <v>649515</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="H23" s="7">
         <v>640</v>
@@ -5582,10 +5621,10 @@
         <v>683442</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>305</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>63</v>
@@ -5597,13 +5636,13 @@
         <v>1332958</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,13 +5710,13 @@
         <v>7932</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5686,13 +5725,13 @@
         <v>6194</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -5701,13 +5740,13 @@
         <v>14126</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>312</v>
+        <v>193</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,10 +5761,10 @@
         <v>770651</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>46</v>
@@ -5737,13 +5776,13 @@
         <v>819973</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="M26" s="7">
         <v>1491</v>
@@ -5752,13 +5791,13 @@
         <v>1590624</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>320</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5865,13 @@
         <v>31531</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="H28" s="7">
         <v>29</v>
@@ -5847,7 +5886,7 @@
         <v>51</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="M28" s="7">
         <v>60</v>
@@ -5859,10 +5898,10 @@
         <v>128</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5916,13 @@
         <v>3362819</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7">
         <v>3309</v>
@@ -5895,7 +5934,7 @@
         <v>155</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>58</v>
@@ -5910,10 +5949,10 @@
         <v>136</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
